--- a/ResultadoEleicoesDistritos/SETÚBAL_ALCOCHETE.xlsx
+++ b/ResultadoEleicoesDistritos/SETÚBAL_ALCOCHETE.xlsx
@@ -597,64 +597,64 @@
         <v>4653</v>
       </c>
       <c r="H2" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I2" t="n">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="J2" t="n">
-        <v>1920</v>
+        <v>1903</v>
       </c>
       <c r="K2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="M2" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N2" t="n">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S2" t="n">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="T2" t="n">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="U2" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V2" t="n">
-        <v>3021</v>
+        <v>2957</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>2975</v>
+        <v>3026</v>
       </c>
       <c r="Y2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
